--- a/Outstation_Cab/src/main/java/libraries/Data.xlsx
+++ b/Outstation_Cab/src/main/java/libraries/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="2">
   <si>
     <t xml:space="preserve">
 Car Name: Xylo, ErtigaType: SUV Price: Rs. 9,599

--- a/Outstation_Cab/src/main/java/libraries/Data.xlsx
+++ b/Outstation_Cab/src/main/java/libraries/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="9990"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23280" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="6">
   <si>
     <t xml:space="preserve">
-Car Name: Xylo, ErtigaType: SUV Price: Rs. 9,599
-Car Name: Maruti Suzuki ErtigaType: SUV Price: Rs. 12,647
-Car Name: Innova CrystaType: SUV Price: Rs. 15,295</t>
+|Car Name: Xylo, ErtigaType: SUV Price: Rs. 9,599
+     |Car Name: Maruti Suzuki Ertiga  Type: SUV   Price: Rs. 12,647
+      |Car Name: Innova Crysta  Type: SUV   Price: Rs. 15,295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabs: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result: </t>
   </si>
   <si>
     <t>The Lowest Price: 
 Car Name: Xylo, ErtigaType: SUV Price: Rs. 9,599</t>
+  </si>
+  <si>
+    <t>1 Rooms 2 Guests</t>
+  </si>
+  <si>
+    <t>Selected Room:</t>
   </si>
 </sst>
 </file>
@@ -358,27 +370,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="150.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="6">
-      <c r="D6" t="s">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
